--- a/Sentiment_Analysis/experiments_result.xlsx
+++ b/Sentiment_Analysis/experiments_result.xlsx
@@ -1,43 +1,170 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17405C7-D423-4B33-8CBA-644CA35D97B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="20">
+  <si>
+    <t>Tokenize</t>
+  </si>
+  <si>
+    <t>Regex_Tokenize</t>
+  </si>
+  <si>
+    <t>Lemmatize</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>Stopwords</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>TFIDF</t>
+  </si>
+  <si>
+    <t>Feature Engineering</t>
+  </si>
+  <si>
+    <t>BNB</t>
+  </si>
+  <si>
+    <t>MNB</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Grid search 
+for C
+10-0.01,
+L2 Reg</t>
+  </si>
+  <si>
+    <t>Baseline, 
+Grid Search
+for both C_LR
+and C_SVM
+L2 Reg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -45,15 +172,359 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +801,1668 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="13.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.77734375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="41" customWidth="1"/>
+    <col min="15" max="15" width="10" style="41" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="41" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31">
+        <v>0.93445100000000003</v>
+      </c>
+      <c r="J4" s="32">
+        <v>0.793346</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0.95497200000000004</v>
+      </c>
+      <c r="N4" s="38">
+        <v>0.776945</v>
+      </c>
+      <c r="O4" s="38">
+        <v>0.98018300000000003</v>
+      </c>
+      <c r="P4" s="38">
+        <v>0.76616700000000004</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>1</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0.93585799999999997</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0.79147100000000004</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0.95661399999999996</v>
+      </c>
+      <c r="N5" s="38">
+        <v>0.76804099999999997</v>
+      </c>
+      <c r="O5" s="38">
+        <v>0.95872400000000002</v>
+      </c>
+      <c r="P5" s="38">
+        <v>0.77085300000000001</v>
+      </c>
+      <c r="Q5" s="33"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>1</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30">
+        <v>1</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0.93362999999999996</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0.79428299999999996</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0.98053500000000005</v>
+      </c>
+      <c r="N6" s="38">
+        <v>0.77413299999999996</v>
+      </c>
+      <c r="O6" s="38">
+        <v>0.98194199999999998</v>
+      </c>
+      <c r="P6" s="38">
+        <v>0.76897800000000005</v>
+      </c>
+      <c r="Q6" s="33"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29">
+        <v>1</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31">
+        <v>0.93023</v>
+      </c>
+      <c r="J7" s="32">
+        <v>0.79475200000000001</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.99038499999999996</v>
+      </c>
+      <c r="N7" s="38">
+        <v>0.76148099999999996</v>
+      </c>
+      <c r="O7" s="38">
+        <v>0.97877599999999998</v>
+      </c>
+      <c r="P7" s="38">
+        <v>0.76101200000000002</v>
+      </c>
+      <c r="Q7" s="33"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="32">
+        <v>0.93058200000000002</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0.79522000000000004</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0.97854099999999999</v>
+      </c>
+      <c r="N8" s="38">
+        <v>0.756795</v>
+      </c>
+      <c r="O8" s="38">
+        <v>0.95696499999999995</v>
+      </c>
+      <c r="P8" s="38">
+        <v>0.76382399999999995</v>
+      </c>
+      <c r="Q8" s="33"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34">
+        <v>1</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35">
+        <v>1</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0.93081599999999998</v>
+      </c>
+      <c r="L9" s="36">
+        <v>0.79053399999999996</v>
+      </c>
+      <c r="M9" s="36">
+        <v>0.98311400000000004</v>
+      </c>
+      <c r="N9" s="39">
+        <v>0.76897800000000005</v>
+      </c>
+      <c r="O9" s="43">
+        <v>0.98440399999999995</v>
+      </c>
+      <c r="P9" s="39">
+        <v>0.76522999999999997</v>
+      </c>
+      <c r="Q9" s="33"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25">
+        <v>0.91064699999999998</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.79475200000000001</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="50">
+        <v>0.93445100000000003</v>
+      </c>
+      <c r="N10" s="51">
+        <v>0.76804099999999997</v>
+      </c>
+      <c r="O10" s="51">
+        <v>0.93644499999999997</v>
+      </c>
+      <c r="P10" s="51">
+        <v>0.77366400000000002</v>
+      </c>
+      <c r="Q10" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.91041300000000003</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.79662599999999995</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0.96224200000000004</v>
+      </c>
+      <c r="N11" s="44">
+        <v>0.76476100000000002</v>
+      </c>
+      <c r="O11" s="44">
+        <v>0.9375</v>
+      </c>
+      <c r="P11" s="44">
+        <v>0.76804099999999997</v>
+      </c>
+      <c r="Q11" s="48"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.90959199999999996</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.79568899999999998</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0.95531100000000002</v>
+      </c>
+      <c r="N12" s="44">
+        <v>0.77741300000000002</v>
+      </c>
+      <c r="O12" s="44">
+        <v>0.92624300000000004</v>
+      </c>
+      <c r="P12" s="44">
+        <v>0.77507000000000004</v>
+      </c>
+      <c r="Q12" s="48"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9">
+        <v>0.903729</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.79756300000000002</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="22">
+        <v>0.931871</v>
+      </c>
+      <c r="N13" s="44">
+        <v>0.76569799999999999</v>
+      </c>
+      <c r="O13" s="44">
+        <v>0.95884100000000005</v>
+      </c>
+      <c r="P13" s="44">
+        <v>0.76757299999999995</v>
+      </c>
+      <c r="Q13" s="48"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.90349400000000002</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.796157</v>
+      </c>
+      <c r="M14" s="22">
+        <v>0.95848999999999995</v>
+      </c>
+      <c r="N14" s="44">
+        <v>0.76663499999999996</v>
+      </c>
+      <c r="O14" s="44">
+        <v>0.89563800000000005</v>
+      </c>
+      <c r="P14" s="44">
+        <v>0.76851000000000003</v>
+      </c>
+      <c r="Q14" s="48"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.90197000000000005</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.78912800000000005</v>
+      </c>
+      <c r="M15" s="22">
+        <v>0.92952599999999996</v>
+      </c>
+      <c r="N15" s="42">
+        <v>0.78022499999999995</v>
+      </c>
+      <c r="O15" s="44">
+        <v>0.90079699999999996</v>
+      </c>
+      <c r="P15" s="44">
+        <v>0.78256800000000004</v>
+      </c>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9">
+        <v>0.92917400000000006</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.79100300000000001</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="22">
+        <v>0.97420300000000004</v>
+      </c>
+      <c r="N16" s="44">
+        <v>0.77038399999999996</v>
+      </c>
+      <c r="O16" s="44">
+        <v>0.951102</v>
+      </c>
+      <c r="P16" s="44">
+        <v>0.77507000000000004</v>
+      </c>
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.92987799999999998</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.78256800000000004</v>
+      </c>
+      <c r="M17" s="22">
+        <v>0.97537499999999999</v>
+      </c>
+      <c r="N17" s="44">
+        <v>0.76569799999999999</v>
+      </c>
+      <c r="O17" s="44">
+        <v>0.97713399999999995</v>
+      </c>
+      <c r="P17" s="44">
+        <v>0.76007499999999995</v>
+      </c>
+      <c r="Q17" s="48"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.92694699999999997</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.79053399999999996</v>
+      </c>
+      <c r="M18" s="22">
+        <v>0.94172100000000003</v>
+      </c>
+      <c r="N18" s="44">
+        <v>0.77553899999999998</v>
+      </c>
+      <c r="O18" s="44">
+        <v>0.97514100000000004</v>
+      </c>
+      <c r="P18" s="44">
+        <v>0.76804099999999997</v>
+      </c>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9">
+        <v>0.92366300000000001</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.79147100000000004</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0.97103700000000004</v>
+      </c>
+      <c r="N19" s="44">
+        <v>0.760544</v>
+      </c>
+      <c r="O19" s="44">
+        <v>0.94840500000000005</v>
+      </c>
+      <c r="P19" s="44">
+        <v>0.76569799999999999</v>
+      </c>
+      <c r="Q19" s="48"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.92331099999999999</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.78866000000000003</v>
+      </c>
+      <c r="M20" s="22">
+        <v>0.97396799999999994</v>
+      </c>
+      <c r="N20" s="44">
+        <v>0.76007499999999995</v>
+      </c>
+      <c r="O20" s="44">
+        <v>0.95051600000000003</v>
+      </c>
+      <c r="P20" s="44">
+        <v>0.76429199999999997</v>
+      </c>
+      <c r="Q20" s="48"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.92096599999999995</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.79006600000000005</v>
+      </c>
+      <c r="M21" s="22">
+        <v>0.97772000000000003</v>
+      </c>
+      <c r="N21" s="44">
+        <v>0.76522999999999997</v>
+      </c>
+      <c r="O21" s="44">
+        <v>0.94641200000000003</v>
+      </c>
+      <c r="P21" s="42">
+        <v>0.78350500000000001</v>
+      </c>
+      <c r="Q21" s="48"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11">
+        <v>0.94043200000000005</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.77460200000000001</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="22">
+        <v>0.95637899999999998</v>
+      </c>
+      <c r="N22" s="44">
+        <v>0.76241800000000004</v>
+      </c>
+      <c r="O22" s="44">
+        <v>0.97748599999999997</v>
+      </c>
+      <c r="P22" s="44">
+        <v>0.75492000000000004</v>
+      </c>
+      <c r="Q22" s="48"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.94008000000000003</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.77178999999999998</v>
+      </c>
+      <c r="M23" s="22">
+        <v>0.97736900000000004</v>
+      </c>
+      <c r="N23" s="44">
+        <v>0.76007499999999995</v>
+      </c>
+      <c r="O23" s="44">
+        <v>0.95708300000000002</v>
+      </c>
+      <c r="P23" s="44">
+        <v>0.76194899999999999</v>
+      </c>
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0.94781899999999997</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.77881900000000004</v>
+      </c>
+      <c r="M24" s="22">
+        <v>0.96247700000000003</v>
+      </c>
+      <c r="N24" s="44">
+        <v>0.76194899999999999</v>
+      </c>
+      <c r="O24" s="44">
+        <v>0.96224200000000004</v>
+      </c>
+      <c r="P24" s="44">
+        <v>0.76241800000000004</v>
+      </c>
+      <c r="Q24" s="48"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="9">
+        <v>0.93562400000000001</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.77507000000000004</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="22">
+        <v>0.95333000000000001</v>
+      </c>
+      <c r="N25" s="44">
+        <v>0.74648499999999995</v>
+      </c>
+      <c r="O25" s="44">
+        <v>0.97431999999999996</v>
+      </c>
+      <c r="P25" s="44">
+        <v>0.74648499999999995</v>
+      </c>
+      <c r="Q25" s="48"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.93562400000000001</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.77178999999999998</v>
+      </c>
+      <c r="M26" s="22">
+        <v>0.97408499999999998</v>
+      </c>
+      <c r="N26" s="44">
+        <v>0.74742299999999995</v>
+      </c>
+      <c r="O26" s="44">
+        <v>0.95591000000000004</v>
+      </c>
+      <c r="P26" s="44">
+        <v>0.74648499999999995</v>
+      </c>
+      <c r="Q26" s="48"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.94547400000000004</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.77225900000000003</v>
+      </c>
+      <c r="M27" s="22">
+        <v>0.97373399999999999</v>
+      </c>
+      <c r="N27" s="44">
+        <v>0.76288699999999998</v>
+      </c>
+      <c r="O27" s="44">
+        <v>0.97338199999999997</v>
+      </c>
+      <c r="P27" s="44">
+        <v>0.75866900000000004</v>
+      </c>
+      <c r="Q27" s="48"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="9">
+        <v>0.91135100000000002</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.77881900000000004</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="22">
+        <v>0.93034700000000004</v>
+      </c>
+      <c r="N28" s="44">
+        <v>0.76241800000000004</v>
+      </c>
+      <c r="O28" s="44">
+        <v>0.931871</v>
+      </c>
+      <c r="P28" s="44">
+        <v>0.76101200000000002</v>
+      </c>
+      <c r="Q28" s="48"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.91264100000000004</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.78116200000000002</v>
+      </c>
+      <c r="M29" s="22">
+        <v>0.89118200000000003</v>
+      </c>
+      <c r="N29" s="44">
+        <v>0.75445200000000001</v>
+      </c>
+      <c r="O29" s="44">
+        <v>0.93210599999999999</v>
+      </c>
+      <c r="P29" s="44">
+        <v>0.76335500000000001</v>
+      </c>
+      <c r="Q29" s="48"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.919794</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.78678499999999996</v>
+      </c>
+      <c r="M30" s="22">
+        <v>0.93421699999999996</v>
+      </c>
+      <c r="N30" s="44">
+        <v>0.77319599999999999</v>
+      </c>
+      <c r="O30" s="44">
+        <v>0.93398199999999998</v>
+      </c>
+      <c r="P30" s="44">
+        <v>0.77178999999999998</v>
+      </c>
+      <c r="Q30" s="48"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="9">
+        <v>0.90408100000000002</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.77881900000000004</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="22">
+        <v>0.92518800000000001</v>
+      </c>
+      <c r="N31" s="44">
+        <v>0.75538899999999998</v>
+      </c>
+      <c r="O31" s="44">
+        <v>0.92694699999999997</v>
+      </c>
+      <c r="P31" s="44">
+        <v>0.75492000000000004</v>
+      </c>
+      <c r="Q31" s="48"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.90525299999999997</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.776007</v>
+      </c>
+      <c r="M32" s="22">
+        <v>0.92741600000000002</v>
+      </c>
+      <c r="N32" s="44">
+        <v>0.75726300000000002</v>
+      </c>
+      <c r="O32" s="44">
+        <v>0.92917400000000006</v>
+      </c>
+      <c r="P32" s="44">
+        <v>0.75820100000000001</v>
+      </c>
+      <c r="Q32" s="48"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.91416500000000001</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.76804099999999997</v>
+      </c>
+      <c r="M33" s="22">
+        <v>0.91908999999999996</v>
+      </c>
+      <c r="N33" s="44">
+        <v>0.76804099999999997</v>
+      </c>
+      <c r="O33" s="44">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="P33" s="44">
+        <v>0.76476100000000002</v>
+      </c>
+      <c r="Q33" s="48"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="9">
+        <v>0.93386499999999995</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.77132100000000003</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="22">
+        <v>0.948874</v>
+      </c>
+      <c r="N34" s="44">
+        <v>0.756795</v>
+      </c>
+      <c r="O34" s="44">
+        <v>0.94934300000000005</v>
+      </c>
+      <c r="P34" s="44">
+        <v>0.75773199999999996</v>
+      </c>
+      <c r="Q34" s="48"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.93362999999999996</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.76569799999999999</v>
+      </c>
+      <c r="M35" s="22">
+        <v>0.94910899999999998</v>
+      </c>
+      <c r="N35" s="44">
+        <v>0.75913799999999998</v>
+      </c>
+      <c r="O35" s="44">
+        <v>0.95063299999999995</v>
+      </c>
+      <c r="P35" s="44">
+        <v>0.75913799999999998</v>
+      </c>
+      <c r="Q35" s="48"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.94113500000000005</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.776007</v>
+      </c>
+      <c r="M36" s="22">
+        <v>0.97467199999999998</v>
+      </c>
+      <c r="N36" s="44">
+        <v>0.76335500000000001</v>
+      </c>
+      <c r="O36" s="44">
+        <v>0.95204</v>
+      </c>
+      <c r="P36" s="44">
+        <v>0.76757299999999995</v>
+      </c>
+      <c r="Q36" s="48"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="9">
+        <v>0.92647699999999999</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.77132100000000003</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="22">
+        <v>0.94242499999999996</v>
+      </c>
+      <c r="N37" s="44">
+        <v>0.74929699999999999</v>
+      </c>
+      <c r="O37" s="44">
+        <v>0.94265900000000002</v>
+      </c>
+      <c r="P37" s="44">
+        <v>0.75023399999999996</v>
+      </c>
+      <c r="Q37" s="48"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.92718100000000003</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.76663499999999996</v>
+      </c>
+      <c r="M38" s="22">
+        <v>0.94242499999999996</v>
+      </c>
+      <c r="N38" s="44">
+        <v>0.75351500000000005</v>
+      </c>
+      <c r="O38" s="44">
+        <v>0.97045000000000003</v>
+      </c>
+      <c r="P38" s="44">
+        <v>0.75163999999999997</v>
+      </c>
+      <c r="Q38" s="48"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.93620999999999999</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.76757299999999995</v>
+      </c>
+      <c r="M39" s="22">
+        <v>0.94031399999999998</v>
+      </c>
+      <c r="N39" s="44">
+        <v>0.76616700000000004</v>
+      </c>
+      <c r="O39" s="44">
+        <v>0.93949300000000002</v>
+      </c>
+      <c r="P39" s="44">
+        <v>0.76710400000000001</v>
+      </c>
+      <c r="Q39" s="49"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="Q4:Q9"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q10:Q39"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sentiment_Analysis/experiments_result.xlsx
+++ b/Sentiment_Analysis/experiments_result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17405C7-D423-4B33-8CBA-644CA35D97B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1615869-23D9-4F22-9BA1-79F12EE60F5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -381,58 +381,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -441,13 +417,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -459,13 +435,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,37 +447,52 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -516,11 +504,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,391 +822,391 @@
     <col min="11" max="11" width="9.21875" style="5" customWidth="1"/>
     <col min="12" max="12" width="10" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.21875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="41" customWidth="1"/>
-    <col min="15" max="15" width="10" style="41" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="41" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="10" style="31" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="31" customWidth="1"/>
     <col min="17" max="17" width="13.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="45" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="37" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="46" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="16"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="20" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
-        <v>1</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23">
         <v>0.93445100000000003</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="24">
         <v>0.793346</v>
       </c>
-      <c r="K4" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="32">
+      <c r="K4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="24">
         <v>0.95497200000000004</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="28">
         <v>0.776945</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="28">
         <v>0.98018300000000003</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="28">
         <v>0.76616700000000004</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="38" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
-        <v>1</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29">
-        <v>1</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="32">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="24">
         <v>0.93585799999999997</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="24">
         <v>0.79147100000000004</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="24">
         <v>0.95661399999999996</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="28">
         <v>0.76804099999999997</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="28">
         <v>0.95872400000000002</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="28">
         <v>0.77085300000000001</v>
       </c>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
-        <v>1</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30">
-        <v>1</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="32">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="24">
         <v>0.93362999999999996</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="24">
         <v>0.79428299999999996</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="24">
         <v>0.98053500000000005</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="28">
         <v>0.77413299999999996</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="28">
         <v>0.98194199999999998</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="28">
         <v>0.76897800000000005</v>
       </c>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29">
-        <v>1</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29">
-        <v>1</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23">
         <v>0.93023</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="24">
         <v>0.79475200000000001</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="32" t="s">
+      <c r="K7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="8">
         <v>0.99038499999999996</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="28">
         <v>0.76148099999999996</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="28">
         <v>0.97877599999999998</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="28">
         <v>0.76101200000000002</v>
       </c>
-      <c r="Q7" s="33"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29">
-        <v>1</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="32">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="24">
         <v>0.93058200000000002</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="24">
         <v>0.79522000000000004</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="24">
         <v>0.97854099999999999</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="28">
         <v>0.756795</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="28">
         <v>0.95696499999999995</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="28">
         <v>0.76382399999999995</v>
       </c>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34">
-        <v>1</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35">
-        <v>1</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="36">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="27">
         <v>0.93081599999999998</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="27">
         <v>0.79053399999999996</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="27">
         <v>0.98311400000000004</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="29">
         <v>0.76897800000000005</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="33">
         <v>0.98440399999999995</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="29">
         <v>0.76522999999999997</v>
       </c>
-      <c r="Q9" s="33"/>
+      <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
-        <v>1</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17">
         <v>0.91064699999999998</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="18">
         <v>0.79475200000000001</v>
       </c>
-      <c r="K10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="50">
+      <c r="K10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="35">
         <v>0.93445100000000003</v>
       </c>
-      <c r="N10" s="51">
+      <c r="N10" s="36">
         <v>0.76804099999999997</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="36">
         <v>0.93644499999999997</v>
       </c>
-      <c r="P10" s="51">
+      <c r="P10" s="36">
         <v>0.77366400000000002</v>
       </c>
-      <c r="Q10" s="47" t="s">
+      <c r="Q10" s="43" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1237,19 +1237,19 @@
       <c r="L11" s="8">
         <v>0.79662599999999995</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="14">
         <v>0.96224200000000004</v>
       </c>
-      <c r="N11" s="44">
+      <c r="N11" s="34">
         <v>0.76476100000000002</v>
       </c>
-      <c r="O11" s="44">
+      <c r="O11" s="34">
         <v>0.9375</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="34">
         <v>0.76804099999999997</v>
       </c>
-      <c r="Q11" s="48"/>
+      <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1278,19 +1278,19 @@
       <c r="L12" s="7">
         <v>0.79568899999999998</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="14">
         <v>0.95531100000000002</v>
       </c>
-      <c r="N12" s="44">
+      <c r="N12" s="34">
         <v>0.77741300000000002</v>
       </c>
-      <c r="O12" s="44">
+      <c r="O12" s="34">
         <v>0.92624300000000004</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="34">
         <v>0.77507000000000004</v>
       </c>
-      <c r="Q12" s="48"/>
+      <c r="Q12" s="44"/>
     </row>
     <row r="13" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -1319,19 +1319,19 @@
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="14">
         <v>0.931871</v>
       </c>
-      <c r="N13" s="44">
+      <c r="N13" s="34">
         <v>0.76569799999999999</v>
       </c>
-      <c r="O13" s="44">
+      <c r="O13" s="34">
         <v>0.95884100000000005</v>
       </c>
-      <c r="P13" s="44">
+      <c r="P13" s="34">
         <v>0.76757299999999995</v>
       </c>
-      <c r="Q13" s="48"/>
+      <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1360,19 +1360,19 @@
       <c r="L14" s="7">
         <v>0.796157</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="14">
         <v>0.95848999999999995</v>
       </c>
-      <c r="N14" s="44">
+      <c r="N14" s="34">
         <v>0.76663499999999996</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="34">
         <v>0.89563800000000005</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="34">
         <v>0.76851000000000003</v>
       </c>
-      <c r="Q14" s="48"/>
+      <c r="Q14" s="44"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
@@ -1401,19 +1401,19 @@
       <c r="L15" s="7">
         <v>0.78912800000000005</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="14">
         <v>0.92952599999999996</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="32">
         <v>0.78022499999999995</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="34">
         <v>0.90079699999999996</v>
       </c>
-      <c r="P15" s="44">
+      <c r="P15" s="34">
         <v>0.78256800000000004</v>
       </c>
-      <c r="Q15" s="48"/>
+      <c r="Q15" s="44"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1442,19 +1442,19 @@
       <c r="L16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="14">
         <v>0.97420300000000004</v>
       </c>
-      <c r="N16" s="44">
+      <c r="N16" s="34">
         <v>0.77038399999999996</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="34">
         <v>0.951102</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="34">
         <v>0.77507000000000004</v>
       </c>
-      <c r="Q16" s="48"/>
+      <c r="Q16" s="44"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -1483,19 +1483,19 @@
       <c r="L17" s="7">
         <v>0.78256800000000004</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="14">
         <v>0.97537499999999999</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="34">
         <v>0.76569799999999999</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="34">
         <v>0.97713399999999995</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="34">
         <v>0.76007499999999995</v>
       </c>
-      <c r="Q17" s="48"/>
+      <c r="Q17" s="44"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -1524,19 +1524,19 @@
       <c r="L18" s="7">
         <v>0.79053399999999996</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="14">
         <v>0.94172100000000003</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="34">
         <v>0.77553899999999998</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="34">
         <v>0.97514100000000004</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="34">
         <v>0.76804099999999997</v>
       </c>
-      <c r="Q18" s="48"/>
+      <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -1565,19 +1565,19 @@
       <c r="L19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="14">
         <v>0.97103700000000004</v>
       </c>
-      <c r="N19" s="44">
+      <c r="N19" s="34">
         <v>0.760544</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="34">
         <v>0.94840500000000005</v>
       </c>
-      <c r="P19" s="44">
+      <c r="P19" s="34">
         <v>0.76569799999999999</v>
       </c>
-      <c r="Q19" s="48"/>
+      <c r="Q19" s="44"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1606,19 +1606,19 @@
       <c r="L20" s="7">
         <v>0.78866000000000003</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="14">
         <v>0.97396799999999994</v>
       </c>
-      <c r="N20" s="44">
+      <c r="N20" s="34">
         <v>0.76007499999999995</v>
       </c>
-      <c r="O20" s="44">
+      <c r="O20" s="34">
         <v>0.95051600000000003</v>
       </c>
-      <c r="P20" s="44">
+      <c r="P20" s="34">
         <v>0.76429199999999997</v>
       </c>
-      <c r="Q20" s="48"/>
+      <c r="Q20" s="44"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -1647,19 +1647,19 @@
       <c r="L21" s="7">
         <v>0.79006600000000005</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="14">
         <v>0.97772000000000003</v>
       </c>
-      <c r="N21" s="44">
+      <c r="N21" s="34">
         <v>0.76522999999999997</v>
       </c>
-      <c r="O21" s="44">
+      <c r="O21" s="34">
         <v>0.94641200000000003</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="32">
         <v>0.78350500000000001</v>
       </c>
-      <c r="Q21" s="48"/>
+      <c r="Q21" s="44"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -1688,19 +1688,19 @@
       <c r="L22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="14">
         <v>0.95637899999999998</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="34">
         <v>0.76241800000000004</v>
       </c>
-      <c r="O22" s="44">
+      <c r="O22" s="34">
         <v>0.97748599999999997</v>
       </c>
-      <c r="P22" s="44">
+      <c r="P22" s="34">
         <v>0.75492000000000004</v>
       </c>
-      <c r="Q22" s="48"/>
+      <c r="Q22" s="44"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -1729,19 +1729,19 @@
       <c r="L23" s="7">
         <v>0.77178999999999998</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="14">
         <v>0.97736900000000004</v>
       </c>
-      <c r="N23" s="44">
+      <c r="N23" s="34">
         <v>0.76007499999999995</v>
       </c>
-      <c r="O23" s="44">
+      <c r="O23" s="34">
         <v>0.95708300000000002</v>
       </c>
-      <c r="P23" s="44">
+      <c r="P23" s="34">
         <v>0.76194899999999999</v>
       </c>
-      <c r="Q23" s="48"/>
+      <c r="Q23" s="44"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -1770,19 +1770,19 @@
       <c r="L24" s="7">
         <v>0.77881900000000004</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="14">
         <v>0.96247700000000003</v>
       </c>
-      <c r="N24" s="44">
+      <c r="N24" s="34">
         <v>0.76194899999999999</v>
       </c>
-      <c r="O24" s="44">
+      <c r="O24" s="34">
         <v>0.96224200000000004</v>
       </c>
-      <c r="P24" s="44">
+      <c r="P24" s="34">
         <v>0.76241800000000004</v>
       </c>
-      <c r="Q24" s="48"/>
+      <c r="Q24" s="44"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
@@ -1811,19 +1811,19 @@
       <c r="L25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="14">
         <v>0.95333000000000001</v>
       </c>
-      <c r="N25" s="44">
+      <c r="N25" s="34">
         <v>0.74648499999999995</v>
       </c>
-      <c r="O25" s="44">
+      <c r="O25" s="34">
         <v>0.97431999999999996</v>
       </c>
-      <c r="P25" s="44">
+      <c r="P25" s="34">
         <v>0.74648499999999995</v>
       </c>
-      <c r="Q25" s="48"/>
+      <c r="Q25" s="44"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
@@ -1852,19 +1852,19 @@
       <c r="L26" s="7">
         <v>0.77178999999999998</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="14">
         <v>0.97408499999999998</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="34">
         <v>0.74742299999999995</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="34">
         <v>0.95591000000000004</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="34">
         <v>0.74648499999999995</v>
       </c>
-      <c r="Q26" s="48"/>
+      <c r="Q26" s="44"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -1893,19 +1893,19 @@
       <c r="L27" s="7">
         <v>0.77225900000000003</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="14">
         <v>0.97373399999999999</v>
       </c>
-      <c r="N27" s="44">
+      <c r="N27" s="34">
         <v>0.76288699999999998</v>
       </c>
-      <c r="O27" s="44">
+      <c r="O27" s="34">
         <v>0.97338199999999997</v>
       </c>
-      <c r="P27" s="44">
+      <c r="P27" s="34">
         <v>0.75866900000000004</v>
       </c>
-      <c r="Q27" s="48"/>
+      <c r="Q27" s="44"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -1936,19 +1936,19 @@
       <c r="L28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="14">
         <v>0.93034700000000004</v>
       </c>
-      <c r="N28" s="44">
+      <c r="N28" s="34">
         <v>0.76241800000000004</v>
       </c>
-      <c r="O28" s="44">
+      <c r="O28" s="34">
         <v>0.931871</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="34">
         <v>0.76101200000000002</v>
       </c>
-      <c r="Q28" s="48"/>
+      <c r="Q28" s="44"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
@@ -1979,19 +1979,19 @@
       <c r="L29" s="7">
         <v>0.78116200000000002</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="14">
         <v>0.89118200000000003</v>
       </c>
-      <c r="N29" s="44">
+      <c r="N29" s="34">
         <v>0.75445200000000001</v>
       </c>
-      <c r="O29" s="44">
+      <c r="O29" s="34">
         <v>0.93210599999999999</v>
       </c>
-      <c r="P29" s="44">
+      <c r="P29" s="34">
         <v>0.76335500000000001</v>
       </c>
-      <c r="Q29" s="48"/>
+      <c r="Q29" s="44"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
@@ -2022,19 +2022,19 @@
       <c r="L30" s="7">
         <v>0.78678499999999996</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="14">
         <v>0.93421699999999996</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="34">
         <v>0.77319599999999999</v>
       </c>
-      <c r="O30" s="44">
+      <c r="O30" s="34">
         <v>0.93398199999999998</v>
       </c>
-      <c r="P30" s="44">
+      <c r="P30" s="34">
         <v>0.77178999999999998</v>
       </c>
-      <c r="Q30" s="48"/>
+      <c r="Q30" s="44"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -2065,19 +2065,19 @@
       <c r="L31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="14">
         <v>0.92518800000000001</v>
       </c>
-      <c r="N31" s="44">
+      <c r="N31" s="34">
         <v>0.75538899999999998</v>
       </c>
-      <c r="O31" s="44">
+      <c r="O31" s="34">
         <v>0.92694699999999997</v>
       </c>
-      <c r="P31" s="44">
+      <c r="P31" s="34">
         <v>0.75492000000000004</v>
       </c>
-      <c r="Q31" s="48"/>
+      <c r="Q31" s="44"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
@@ -2108,19 +2108,19 @@
       <c r="L32" s="7">
         <v>0.776007</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="14">
         <v>0.92741600000000002</v>
       </c>
-      <c r="N32" s="44">
+      <c r="N32" s="34">
         <v>0.75726300000000002</v>
       </c>
-      <c r="O32" s="44">
+      <c r="O32" s="34">
         <v>0.92917400000000006</v>
       </c>
-      <c r="P32" s="44">
+      <c r="P32" s="34">
         <v>0.75820100000000001</v>
       </c>
-      <c r="Q32" s="48"/>
+      <c r="Q32" s="44"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -2151,19 +2151,19 @@
       <c r="L33" s="7">
         <v>0.76804099999999997</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="14">
         <v>0.91908999999999996</v>
       </c>
-      <c r="N33" s="44">
+      <c r="N33" s="34">
         <v>0.76804099999999997</v>
       </c>
-      <c r="O33" s="44">
+      <c r="O33" s="34">
         <v>0.91779999999999995</v>
       </c>
-      <c r="P33" s="44">
+      <c r="P33" s="34">
         <v>0.76476100000000002</v>
       </c>
-      <c r="Q33" s="48"/>
+      <c r="Q33" s="44"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
@@ -2194,19 +2194,19 @@
       <c r="L34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="14">
         <v>0.948874</v>
       </c>
-      <c r="N34" s="44">
+      <c r="N34" s="34">
         <v>0.756795</v>
       </c>
-      <c r="O34" s="44">
+      <c r="O34" s="34">
         <v>0.94934300000000005</v>
       </c>
-      <c r="P34" s="44">
+      <c r="P34" s="34">
         <v>0.75773199999999996</v>
       </c>
-      <c r="Q34" s="48"/>
+      <c r="Q34" s="44"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
@@ -2237,19 +2237,19 @@
       <c r="L35" s="7">
         <v>0.76569799999999999</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="14">
         <v>0.94910899999999998</v>
       </c>
-      <c r="N35" s="44">
+      <c r="N35" s="34">
         <v>0.75913799999999998</v>
       </c>
-      <c r="O35" s="44">
+      <c r="O35" s="34">
         <v>0.95063299999999995</v>
       </c>
-      <c r="P35" s="44">
+      <c r="P35" s="34">
         <v>0.75913799999999998</v>
       </c>
-      <c r="Q35" s="48"/>
+      <c r="Q35" s="44"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
@@ -2280,19 +2280,19 @@
       <c r="L36" s="7">
         <v>0.776007</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="14">
         <v>0.97467199999999998</v>
       </c>
-      <c r="N36" s="44">
+      <c r="N36" s="34">
         <v>0.76335500000000001</v>
       </c>
-      <c r="O36" s="44">
+      <c r="O36" s="34">
         <v>0.95204</v>
       </c>
-      <c r="P36" s="44">
+      <c r="P36" s="34">
         <v>0.76757299999999995</v>
       </c>
-      <c r="Q36" s="48"/>
+      <c r="Q36" s="44"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
@@ -2323,19 +2323,19 @@
       <c r="L37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="14">
         <v>0.94242499999999996</v>
       </c>
-      <c r="N37" s="44">
+      <c r="N37" s="34">
         <v>0.74929699999999999</v>
       </c>
-      <c r="O37" s="44">
+      <c r="O37" s="34">
         <v>0.94265900000000002</v>
       </c>
-      <c r="P37" s="44">
+      <c r="P37" s="34">
         <v>0.75023399999999996</v>
       </c>
-      <c r="Q37" s="48"/>
+      <c r="Q37" s="44"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -2366,19 +2366,19 @@
       <c r="L38" s="7">
         <v>0.76663499999999996</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="14">
         <v>0.94242499999999996</v>
       </c>
-      <c r="N38" s="44">
+      <c r="N38" s="34">
         <v>0.75351500000000005</v>
       </c>
-      <c r="O38" s="44">
+      <c r="O38" s="34">
         <v>0.97045000000000003</v>
       </c>
-      <c r="P38" s="44">
+      <c r="P38" s="34">
         <v>0.75163999999999997</v>
       </c>
-      <c r="Q38" s="48"/>
+      <c r="Q38" s="44"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
@@ -2409,19 +2409,19 @@
       <c r="L39" s="7">
         <v>0.76757299999999995</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="14">
         <v>0.94031399999999998</v>
       </c>
-      <c r="N39" s="44">
+      <c r="N39" s="34">
         <v>0.76616700000000004</v>
       </c>
-      <c r="O39" s="44">
+      <c r="O39" s="34">
         <v>0.93949300000000002</v>
       </c>
-      <c r="P39" s="44">
+      <c r="P39" s="34">
         <v>0.76710400000000001</v>
       </c>
-      <c r="Q39" s="49"/>
+      <c r="Q39" s="45"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
@@ -2437,13 +2437,14 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="28"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="Q4:Q9"/>
     <mergeCell ref="I1:P1"/>
@@ -2460,7 +2461,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
